--- a/dev-note.xlsx
+++ b/dev-note.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210FD8B-6F17-4217-B8E0-F82892BCDE92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3ECB9-AD05-4F8E-9468-687CE08CD072}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/dev-note.xlsx
+++ b/dev-note.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3ECB9-AD05-4F8E-9468-687CE08CD072}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A912D8F-6E08-491E-8F05-5DAC8E80E123}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="注册功能" sheetId="3" r:id="rId1"/>
+    <sheet name="功能" sheetId="4" r:id="rId1"/>
+    <sheet name="注册" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>注册页面表单验证，使用回调方式，用了字符串的正则表达式校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +105,30 @@
   </si>
   <si>
     <t>去掉form的Position: absolute属性（使元素的位置与文档流无关，定位的元素和其他元素重叠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写两步信息，添加用户信息完善标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活方式：邮件，到达失效时间自动删除用户注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,11 +462,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EF03C1-DC28-46F7-B5D4-51E8C50017F2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD9772-C8FD-4F9C-BC9B-73B206B23CA7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
